--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e339f38526139f95/Bachelorarbeit/latex-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{9ACA641C-EB7E-D543-92CA-F88196E649B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B889661-4A39-A443-8C38-429E90075DFE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{9ACA641C-EB7E-D543-92CA-F88196E649B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DC0229-EC02-A847-BB66-7E7441A86D8B}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2180" windowWidth="27200" windowHeight="17440" xr2:uid="{E0D168F2-178D-5242-BC3F-A98FEBE947DF}"/>
+    <workbookView xWindow="2040" yWindow="2180" windowWidth="27200" windowHeight="17440" activeTab="1" xr2:uid="{E0D168F2-178D-5242-BC3F-A98FEBE947DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -463,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F89220-9913-6943-BCA8-C66EB75411F9}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,4 +591,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E837A4CA-9F6F-864D-A375-E5C9EEF9138F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>